--- a/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T10:06:24+00:00</t>
+    <t>2025-07-28T13:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:05:57+00:00</t>
+    <t>2025-07-28T16:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:01:54+00:00</t>
+    <t>2025-07-30T08:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
+++ b/nr-test-ajout-target/ig/StructureDefinition-ror-organization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8079" uniqueCount="913">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:58:21+00:00</t>
+    <t>2025-08-06T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2131,7 +2131,7 @@
     <t>extension pour définir les données de géolocalisation de l'EG</t>
   </si>
   <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
+    <t>An absolute geographic location for the address, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
   </si>
   <si>
     <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
@@ -2183,13 +2183,6 @@
 </t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
-  </si>
-  <si>
     <t>Organization.address.extension:ror-organization-geolocation.extension:longitude</t>
   </si>
   <si>
@@ -2237,7 +2230,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -21752,7 +21745,7 @@
         <v>72</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L181" t="s" s="2">
         <v>96</v>
@@ -21818,7 +21811,7 @@
         <v>80</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>72</v>
@@ -22054,7 +22047,7 @@
         <v>72</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L184" t="s" s="2">
         <v>96</v>
@@ -22120,7 +22113,7 @@
         <v>80</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>72</v>
@@ -22362,7 +22355,7 @@
         <v>661</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22422,7 +22415,7 @@
         <v>80</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>93</v>
@@ -22430,13 +22423,13 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>72</v>
@@ -22461,10 +22454,10 @@
         <v>101</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -22532,7 +22525,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>678</v>
@@ -22558,7 +22551,7 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>96</v>
@@ -22624,7 +22617,7 @@
         <v>80</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>72</v>
@@ -22632,7 +22625,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>680</v>
@@ -22732,7 +22725,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>682</v>
@@ -22775,7 +22768,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>72</v>
@@ -22834,7 +22827,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>684</v>
@@ -22866,7 +22859,7 @@
         <v>661</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22926,7 +22919,7 @@
         <v>80</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>93</v>
@@ -22934,13 +22927,13 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>651</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>72</v>
@@ -22962,13 +22955,13 @@
         <v>72</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L193" t="s" s="2">
         <v>184</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -23036,7 +23029,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>653</v>
@@ -23079,7 +23072,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>72</v>
@@ -23138,7 +23131,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>660</v>
@@ -23164,13 +23157,13 @@
         <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>661</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -23230,7 +23223,7 @@
         <v>80</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>93</v>
@@ -23238,10 +23231,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23267,16 +23260,16 @@
         <v>161</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="M196" t="s" s="2">
+      <c r="O196" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>72</v>
@@ -23289,7 +23282,7 @@
         <v>72</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>72</v>
@@ -23304,28 +23297,28 @@
         <v>153</v>
       </c>
       <c r="Y196" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF196" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>73</v>
@@ -23342,10 +23335,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23371,13 +23364,13 @@
         <v>161</v>
       </c>
       <c r="L197" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M197" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N197" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -23391,7 +23384,7 @@
         <v>72</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>72</v>
@@ -23406,28 +23399,28 @@
         <v>153</v>
       </c>
       <c r="Y197" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Z197" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AA197" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB197" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC197" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD197" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE197" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF197" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>73</v>
@@ -23444,10 +23437,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23473,16 +23466,16 @@
         <v>95</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M198" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="N198" t="s" s="2">
         <v>722</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>723</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>72</v>
@@ -23495,7 +23488,7 @@
         <v>72</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>72</v>
@@ -23531,7 +23524,7 @@
         <v>72</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>73</v>
@@ -23548,10 +23541,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23577,10 +23570,10 @@
         <v>95</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="N199" t="s" s="2">
         <v>476</v>
@@ -23597,7 +23590,7 @@
         <v>72</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>72</v>
@@ -23633,7 +23626,7 @@
         <v>72</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>73</v>
@@ -23650,10 +23643,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23750,10 +23743,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23852,13 +23845,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B202" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="C202" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>72</v>
@@ -23880,13 +23873,13 @@
         <v>72</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L202" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M202" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23954,13 +23947,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>72</v>
@@ -23982,13 +23975,13 @@
         <v>72</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L203" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M203" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -24056,13 +24049,13 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>72</v>
@@ -24084,13 +24077,13 @@
         <v>72</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="M204" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>749</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -24158,13 +24151,13 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>72</v>
@@ -24186,13 +24179,13 @@
         <v>72</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="L205" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="M205" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="M205" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -24260,13 +24253,13 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>72</v>
@@ -24288,13 +24281,13 @@
         <v>72</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="M206" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>758</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -24362,10 +24355,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24388,7 +24381,7 @@
         <v>72</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L207" t="s" s="2">
         <v>96</v>
@@ -24454,7 +24447,7 @@
         <v>80</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>72</v>
@@ -24462,10 +24455,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24562,10 +24555,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24605,7 +24598,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>72</v>
@@ -24664,10 +24657,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24696,7 +24689,7 @@
         <v>661</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24727,7 +24720,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>72</v>
@@ -24754,7 +24747,7 @@
         <v>80</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>93</v>
@@ -24762,13 +24755,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>72</v>
@@ -24790,13 +24783,13 @@
         <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="M211" t="s" s="2">
-        <v>774</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
@@ -24864,13 +24857,13 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>72</v>
@@ -24892,13 +24885,13 @@
         <v>72</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="L212" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24966,13 +24959,13 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>72</v>
@@ -24994,13 +24987,13 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -25068,10 +25061,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -25168,14 +25161,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -25197,10 +25190,10 @@
         <v>95</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N215" t="s" s="2">
         <v>476</v>
@@ -25217,7 +25210,7 @@
         <v>72</v>
       </c>
       <c r="T215" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U215" t="s" s="2">
         <v>72</v>
@@ -25253,7 +25246,7 @@
         <v>72</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
@@ -25270,14 +25263,14 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25299,13 +25292,13 @@
         <v>95</v>
       </c>
       <c r="L216" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="M216" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="N216" t="s" s="2">
         <v>794</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>795</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>796</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
@@ -25319,7 +25312,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25355,7 +25348,7 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
@@ -25372,14 +25365,14 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25401,10 +25394,10 @@
         <v>95</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N217" t="s" s="2">
         <v>476</v>
@@ -25457,7 +25450,7 @@
         <v>72</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
@@ -25474,14 +25467,14 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25503,10 +25496,10 @@
         <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N218" t="s" s="2">
         <v>476</v>
@@ -25523,7 +25516,7 @@
         <v>72</v>
       </c>
       <c r="T218" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U218" t="s" s="2">
         <v>72</v>
@@ -25559,7 +25552,7 @@
         <v>72</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>73</v>
@@ -25576,10 +25569,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25605,13 +25598,13 @@
         <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M219" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N219" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="M219" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
@@ -25661,7 +25654,7 @@
         <v>72</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
@@ -25678,10 +25671,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25707,16 +25700,16 @@
         <v>322</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N220" t="s" s="2">
         <v>325</v>
       </c>
       <c r="O220" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>72</v>
@@ -25729,7 +25722,7 @@
         <v>72</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>72</v>
@@ -25765,7 +25758,7 @@
         <v>72</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>73</v>
@@ -25782,10 +25775,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25808,19 +25801,19 @@
         <v>81</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="L221" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="L221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="O221" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25869,7 +25862,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25886,10 +25879,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25986,10 +25979,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26088,10 +26081,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -26117,13 +26110,13 @@
         <v>95</v>
       </c>
       <c r="L224" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="M224" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -26173,7 +26166,7 @@
         <v>72</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>73</v>
@@ -26182,7 +26175,7 @@
         <v>80</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>93</v>
@@ -26190,10 +26183,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -26219,13 +26212,13 @@
         <v>122</v>
       </c>
       <c r="L225" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N225" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="M225" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26254,7 +26247,7 @@
         <v>138</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>442</v>
@@ -26275,7 +26268,7 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
@@ -26292,10 +26285,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -26321,13 +26314,13 @@
         <v>283</v>
       </c>
       <c r="L226" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="N226" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="M226" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>844</v>
       </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
@@ -26377,7 +26370,7 @@
         <v>72</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
@@ -26394,10 +26387,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26423,13 +26416,13 @@
         <v>95</v>
       </c>
       <c r="L227" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="N227" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="M227" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
@@ -26479,7 +26472,7 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
@@ -26496,10 +26489,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26522,19 +26515,19 @@
         <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="M228" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="O228" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="O228" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>72</v>
@@ -26583,7 +26576,7 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
@@ -26600,10 +26593,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26700,10 +26693,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26802,13 +26795,13 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B231" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="C231" t="s" s="2">
         <v>858</v>
-      </c>
-      <c r="C231" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>72</v>
@@ -26830,13 +26823,13 @@
         <v>72</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M231" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="M231" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -26904,13 +26897,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>72</v>
@@ -26932,13 +26925,13 @@
         <v>72</v>
       </c>
       <c r="K232" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="L232" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="L232" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -27006,13 +26999,13 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>72</v>
@@ -27034,13 +27027,13 @@
         <v>72</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L233" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -27108,14 +27101,14 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
@@ -27137,10 +27130,10 @@
         <v>101</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>104</v>
@@ -27195,7 +27188,7 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
@@ -27212,10 +27205,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -27241,16 +27234,16 @@
         <v>300</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="N235" t="s" s="2">
         <v>880</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="O235" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27279,7 +27272,7 @@
       </c>
       <c r="Y235" s="2"/>
       <c r="Z235" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AA235" t="s" s="2">
         <v>72</v>
@@ -27297,7 +27290,7 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
@@ -27314,10 +27307,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27340,19 +27333,19 @@
         <v>72</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="O236" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>72</v>
@@ -27401,7 +27394,7 @@
         <v>72</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>73</v>
@@ -27418,10 +27411,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27447,14 +27440,14 @@
         <v>575</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M237" t="s" s="2">
         <v>577</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>72</v>
@@ -27503,7 +27496,7 @@
         <v>72</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>73</v>
@@ -27515,15 +27508,15 @@
         <v>92</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27620,10 +27613,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27720,10 +27713,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C240" t="s" s="2">
         <v>586</v>
@@ -27824,10 +27817,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>600</v>
@@ -27926,10 +27919,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C242" t="s" s="2">
         <v>595</v>
@@ -28028,10 +28021,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>590</v>
@@ -28059,7 +28052,7 @@
         <v>591</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="M243" t="s" s="2">
         <v>593</v>
@@ -28130,10 +28123,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -28232,10 +28225,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28336,10 +28329,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28440,10 +28433,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28542,10 +28535,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -28644,10 +28637,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28673,7 +28666,7 @@
         <v>636</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="M249" t="s" s="2">
         <v>638</v>
@@ -28682,7 +28675,7 @@
         <v>639</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="P249" t="s" s="2">
         <v>72</v>
@@ -28731,7 +28724,7 @@
         <v>72</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>73</v>
@@ -28748,10 +28741,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28774,19 +28767,19 @@
         <v>72</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="L250" t="s" s="2">
+      <c r="N250" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O250" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>72</v>
@@ -28835,7 +28828,7 @@
         <v>72</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>73</v>
